--- a/biology/Médecine/Yoshinori_Ohsumi/Yoshinori_Ohsumi.xlsx
+++ b/biology/Médecine/Yoshinori_Ohsumi/Yoshinori_Ohsumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yoshinori Ohsumi (大隅 良典, Ōsumi Yoshinori?), né le 9 février 1945 à Fukuoka, est un universitaire japonais spécialiste de biologie cellulaire. Après le prix de Kyoto en 2012, il obtient le prix Nobel de physiologie ou médecine 2016 « pour ses recherches sur l'autophagie[1] ». Ce mécanisme joue un rôle fondamental dans le renouvellement des cellules et dans la réaction du corps à la faim et aux infections. La cellule va alors consommer ses propres composants ou même se détruire si elle se trouve dans un environnement défavorable.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yoshinori Ohsumi (大隅 良典, Ōsumi Yoshinori?), né le 9 février 1945 à Fukuoka, est un universitaire japonais spécialiste de biologie cellulaire. Après le prix de Kyoto en 2012, il obtient le prix Nobel de physiologie ou médecine 2016 « pour ses recherches sur l'autophagie ». Ce mécanisme joue un rôle fondamental dans le renouvellement des cellules et dans la réaction du corps à la faim et aux infections. La cellule va alors consommer ses propres composants ou même se détruire si elle se trouve dans un environnement défavorable.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoshinori Ohsumi est né le 9 février 1945 à Fukuoka, au Japon. Il obtient une licence en 1967 et un doctorat en 1974, à l'université de Tokyo. Entre 1974 et 1977 il effectue un post-doctorat à l'Université Rockefeller de New York.
 En 1996, il devient professeur à l’Institut national de biologie fondamentale à Okazaki. De 2004 à 2009 il est aussi professeur au Collège doctoral de recherche avancée à Hayama. En 2009 il devient professeur émérite à l’Institut national de biologie fondamentale et au Collège doctoral de recherche avancée. Après avoir pris sa retraite en 2014, il poursuit sa carrière de professeur à l'Institut de recherche innovante (Institute of Innovative Research) au sein de l'université de technologie de Tokyo où il dirige l'unité de recherche cellulaire.
-En 2016, il décroche le prix Nobel de physiologie ou médecine pour ses recherches sur l'autophagie[2].
+En 2016, il décroche le prix Nobel de physiologie ou médecine pour ses recherches sur l'autophagie.
 </t>
         </is>
       </c>
